--- a/文档/小组分工.xlsx
+++ b/文档/小组分工.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\program\SpringBoot\hotelManagementSystem\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFD5A82-C776-4240-96F4-1535BD0EFB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E333B1-F5BC-417B-BE75-BB2B906EDB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2070" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>序号</t>
   </si>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>软件工程1804</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +577,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -624,7 +632,9 @@
       <c r="D2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8" t="s">
         <v>12</v>
@@ -648,7 +658,9 @@
         <v>15</v>
       </c>
       <c r="D3" s="15"/>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -664,7 +676,9 @@
         <v>16</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -680,7 +694,9 @@
         <v>17</v>
       </c>
       <c r="D5" s="15"/>
-      <c r="E5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
@@ -696,7 +712,9 @@
         <v>18</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -712,7 +730,9 @@
         <v>19</v>
       </c>
       <c r="D7" s="16"/>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>

--- a/文档/小组分工.xlsx
+++ b/文档/小组分工.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\program\SpringBoot\hotelManagementSystem\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E333B1-F5BC-417B-BE75-BB2B906EDB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6516D3-9A57-4797-9EA6-C79607F5AC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>赵浩洋</t>
   </si>
   <si>
-    <t>Java</t>
-  </si>
-  <si>
     <t>酒店管理系统</t>
   </si>
   <si>
@@ -96,6 +93,10 @@
   </si>
   <si>
     <t>后端</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>python+vue</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +578,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -630,23 +631,23 @@
         <v>11</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>13</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5">
@@ -655,11 +656,11 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="9"/>
@@ -673,11 +674,11 @@
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="9"/>
@@ -691,11 +692,11 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="9"/>
@@ -709,11 +710,11 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="9"/>
@@ -727,11 +728,11 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="10"/>
